--- a/SPSWENG_SystemScape_BurnDownChart_v1.xlsx
+++ b/SPSWENG_SystemScape_BurnDownChart_v1.xlsx
@@ -140,10 +140,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$19</c:f>
+              <c:f>Sheet1!$A$2:$A$20</c:f>
               <c:numCache>
                 <c:formatCode>d\-mmm</c:formatCode>
-                <c:ptCount val="18"/>
+                <c:ptCount val="19"/>
                 <c:pt idx="0">
                   <c:v>42052</c:v>
                 </c:pt>
@@ -154,7 +154,7 @@
                   <c:v>42055</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>42056</c:v>
+                  <c:v>42058</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>42059</c:v>
@@ -172,30 +172,33 @@
                   <c:v>42063</c:v>
                 </c:pt>
                 <c:pt idx="9">
+                  <c:v>42065</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>42066</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="11">
                   <c:v>42067</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="12">
                   <c:v>42068</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="13">
                   <c:v>42069</c:v>
                 </c:pt>
-                <c:pt idx="13">
-                  <c:v>42070</c:v>
-                </c:pt>
                 <c:pt idx="14">
+                  <c:v>42072</c:v>
+                </c:pt>
+                <c:pt idx="15">
                   <c:v>42073</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="16">
                   <c:v>42074</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="17">
                   <c:v>42075</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="18">
                   <c:v>42076</c:v>
                 </c:pt>
               </c:numCache>
@@ -203,62 +206,65 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$2:$B$19</c:f>
+              <c:f>Sheet1!$B$2:$B$20</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="18"/>
+                <c:ptCount val="19"/>
                 <c:pt idx="0">
+                  <c:v>234</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>221</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>208</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>195</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>182</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>169</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>156</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>143</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>130</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>117</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="10">
                   <c:v>104</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="11">
                   <c:v>91</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="12">
                   <c:v>78</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="13">
                   <c:v>65</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="14">
                   <c:v>52</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="15">
                   <c:v>39</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="16">
                   <c:v>26</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="17">
                   <c:v>13</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="18">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -285,10 +291,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$19</c:f>
+              <c:f>Sheet1!$A$2:$A$20</c:f>
               <c:numCache>
                 <c:formatCode>d\-mmm</c:formatCode>
-                <c:ptCount val="18"/>
+                <c:ptCount val="19"/>
                 <c:pt idx="0">
                   <c:v>42052</c:v>
                 </c:pt>
@@ -299,7 +305,7 @@
                   <c:v>42055</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>42056</c:v>
+                  <c:v>42058</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>42059</c:v>
@@ -317,30 +323,33 @@
                   <c:v>42063</c:v>
                 </c:pt>
                 <c:pt idx="9">
+                  <c:v>42065</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>42066</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="11">
                   <c:v>42067</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="12">
                   <c:v>42068</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="13">
                   <c:v>42069</c:v>
                 </c:pt>
-                <c:pt idx="13">
-                  <c:v>42070</c:v>
-                </c:pt>
                 <c:pt idx="14">
+                  <c:v>42072</c:v>
+                </c:pt>
+                <c:pt idx="15">
                   <c:v>42073</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="16">
                   <c:v>42074</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="17">
                   <c:v>42075</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="18">
                   <c:v>42076</c:v>
                 </c:pt>
               </c:numCache>
@@ -348,63 +357,66 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$C$2:$C$19</c:f>
+              <c:f>Sheet1!$C$2:$C$20</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="18"/>
+                <c:ptCount val="19"/>
                 <c:pt idx="0">
-                  <c:v>164</c:v>
+                  <c:v>184</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>164</c:v>
+                  <c:v>181</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>161</c:v>
+                  <c:v>172</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>161</c:v>
+                  <c:v>159</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>161</c:v>
+                  <c:v>159</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>161</c:v>
+                  <c:v>159</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>161</c:v>
+                  <c:v>159</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>161</c:v>
+                  <c:v>159</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>161</c:v>
+                  <c:v>159</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>161</c:v>
+                  <c:v>159</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>161</c:v>
+                  <c:v>159</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>161</c:v>
+                  <c:v>159</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>161</c:v>
+                  <c:v>159</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>161</c:v>
+                  <c:v>159</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>161</c:v>
+                  <c:v>159</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>161</c:v>
+                  <c:v>159</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>161</c:v>
+                  <c:v>159</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>161</c:v>
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>159</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -421,11 +433,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="76600448"/>
-        <c:axId val="76601984"/>
+        <c:axId val="69942656"/>
+        <c:axId val="102307712"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="76600448"/>
+        <c:axId val="69942656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -454,14 +466,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="76601984"/>
+        <c:crossAx val="102307712"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="76601984"/>
+        <c:axId val="102307712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -491,7 +503,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="76600448"/>
+        <c:crossAx val="69942656"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -838,7 +850,7 @@
   <dimension ref="A1:C20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -863,10 +875,10 @@
         <v>42052</v>
       </c>
       <c r="B2">
-        <v>221</v>
+        <v>234</v>
       </c>
       <c r="C2">
-        <v>164</v>
+        <v>184</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -875,10 +887,11 @@
       </c>
       <c r="B3">
         <f>B2-13</f>
-        <v>208</v>
+        <v>221</v>
       </c>
       <c r="C3">
-        <v>164</v>
+        <f>C2-3</f>
+        <v>181</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -886,23 +899,25 @@
         <v>42055</v>
       </c>
       <c r="B4">
-        <f t="shared" ref="B4:B20" si="0">B3-13</f>
-        <v>195</v>
+        <f t="shared" ref="B4:C20" si="0">B3-13</f>
+        <v>208</v>
       </c>
       <c r="C4">
-        <v>161</v>
+        <f>C3-9</f>
+        <v>172</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
-        <v>42056</v>
+        <v>42058</v>
       </c>
       <c r="B5">
         <f t="shared" si="0"/>
-        <v>182</v>
+        <v>195</v>
       </c>
       <c r="C5">
-        <v>161</v>
+        <f>C4-13</f>
+        <v>159</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -911,10 +926,11 @@
       </c>
       <c r="B6">
         <f t="shared" si="0"/>
-        <v>169</v>
+        <v>182</v>
       </c>
       <c r="C6">
-        <v>161</v>
+        <f t="shared" ref="C6:C20" si="1">C5</f>
+        <v>159</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -923,10 +939,11 @@
       </c>
       <c r="B7">
         <f t="shared" si="0"/>
-        <v>156</v>
+        <v>169</v>
       </c>
       <c r="C7">
-        <v>161</v>
+        <f t="shared" si="1"/>
+        <v>159</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -935,10 +952,11 @@
       </c>
       <c r="B8">
         <f t="shared" si="0"/>
-        <v>143</v>
+        <v>156</v>
       </c>
       <c r="C8">
-        <v>161</v>
+        <f t="shared" si="1"/>
+        <v>159</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
@@ -947,10 +965,11 @@
       </c>
       <c r="B9">
         <f t="shared" si="0"/>
-        <v>130</v>
+        <v>143</v>
       </c>
       <c r="C9">
-        <v>161</v>
+        <f t="shared" si="1"/>
+        <v>159</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
@@ -959,122 +978,142 @@
       </c>
       <c r="B10">
         <f t="shared" si="0"/>
-        <v>117</v>
+        <v>130</v>
       </c>
       <c r="C10">
-        <v>161</v>
+        <f t="shared" si="1"/>
+        <v>159</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
-        <v>42066</v>
+        <v>42065</v>
       </c>
       <c r="B11">
         <f t="shared" si="0"/>
-        <v>104</v>
+        <v>117</v>
       </c>
       <c r="C11">
-        <v>161</v>
+        <f t="shared" si="1"/>
+        <v>159</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
-        <v>42067</v>
+        <v>42066</v>
       </c>
       <c r="B12">
         <f t="shared" si="0"/>
-        <v>91</v>
+        <v>104</v>
       </c>
       <c r="C12">
-        <v>161</v>
+        <f t="shared" si="1"/>
+        <v>159</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
-        <v>42068</v>
+        <v>42067</v>
       </c>
       <c r="B13">
         <f t="shared" si="0"/>
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="C13">
-        <v>161</v>
+        <f t="shared" si="1"/>
+        <v>159</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
-        <v>42069</v>
+        <v>42068</v>
       </c>
       <c r="B14">
         <f t="shared" si="0"/>
-        <v>65</v>
+        <v>78</v>
       </c>
       <c r="C14">
-        <v>161</v>
+        <f t="shared" si="1"/>
+        <v>159</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
-        <v>42070</v>
+        <v>42069</v>
       </c>
       <c r="B15">
         <f t="shared" si="0"/>
-        <v>52</v>
+        <v>65</v>
       </c>
       <c r="C15">
-        <v>161</v>
+        <f t="shared" si="1"/>
+        <v>159</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
-        <v>42073</v>
+        <v>42072</v>
       </c>
       <c r="B16">
         <f t="shared" si="0"/>
-        <v>39</v>
+        <v>52</v>
       </c>
       <c r="C16">
-        <v>161</v>
+        <f t="shared" si="1"/>
+        <v>159</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
-        <v>42074</v>
+        <v>42073</v>
       </c>
       <c r="B17">
         <f t="shared" si="0"/>
-        <v>26</v>
+        <v>39</v>
       </c>
       <c r="C17">
-        <v>161</v>
+        <f t="shared" si="1"/>
+        <v>159</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
-        <v>42075</v>
+        <v>42074</v>
       </c>
       <c r="B18">
         <f t="shared" si="0"/>
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="C18">
-        <v>161</v>
+        <f t="shared" si="1"/>
+        <v>159</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
+        <v>42075</v>
+      </c>
+      <c r="B19">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="C19">
+        <f t="shared" si="1"/>
+        <v>159</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
         <v>42076</v>
       </c>
-      <c r="B19">
+      <c r="B20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="C19">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="1"/>
+      <c r="C20">
+        <f t="shared" si="1"/>
+        <v>159</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/SPSWENG_SystemScape_BurnDownChart_v1.xlsx
+++ b/SPSWENG_SystemScape_BurnDownChart_v1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="720" yWindow="630" windowWidth="19635" windowHeight="7440"/>
+    <workbookView xWindow="720" yWindow="630" windowWidth="10530" windowHeight="7440"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -12,6 +12,7 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="145621"/>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
@@ -140,10 +141,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$20</c:f>
+              <c:f>Sheet1!$A$2:$A$18</c:f>
               <c:numCache>
                 <c:formatCode>d\-mmm</c:formatCode>
-                <c:ptCount val="19"/>
+                <c:ptCount val="17"/>
                 <c:pt idx="0">
                   <c:v>42052</c:v>
                 </c:pt>
@@ -160,45 +161,39 @@
                   <c:v>42059</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>42060</c:v>
+                  <c:v>42061</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>42061</c:v>
+                  <c:v>42062</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>42062</c:v>
+                  <c:v>42065</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>42063</c:v>
+                  <c:v>42066</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>42065</c:v>
+                  <c:v>42067</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>42066</c:v>
+                  <c:v>42068</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>42067</c:v>
+                  <c:v>42069</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>42068</c:v>
+                  <c:v>42072</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>42069</c:v>
+                  <c:v>42073</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>42072</c:v>
+                  <c:v>42074</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>42073</c:v>
+                  <c:v>42075</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>42074</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>42075</c:v>
-                </c:pt>
-                <c:pt idx="18">
                   <c:v>42076</c:v>
                 </c:pt>
               </c:numCache>
@@ -206,65 +201,59 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$2:$B$20</c:f>
+              <c:f>Sheet1!$B$2:$B$18</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="19"/>
+                <c:ptCount val="17"/>
                 <c:pt idx="0">
-                  <c:v>234</c:v>
+                  <c:v>208</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>221</c:v>
+                  <c:v>195</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>208</c:v>
+                  <c:v>182</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>195</c:v>
+                  <c:v>169</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>182</c:v>
+                  <c:v>156</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>169</c:v>
+                  <c:v>143</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>156</c:v>
+                  <c:v>130</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>143</c:v>
+                  <c:v>117</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>130</c:v>
+                  <c:v>104</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>117</c:v>
+                  <c:v>91</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>104</c:v>
+                  <c:v>78</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>91</c:v>
+                  <c:v>65</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>78</c:v>
+                  <c:v>52</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>65</c:v>
+                  <c:v>39</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>52</c:v>
+                  <c:v>26</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>39</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>26</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="18">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -291,10 +280,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$20</c:f>
+              <c:f>Sheet1!$A$2:$A$18</c:f>
               <c:numCache>
                 <c:formatCode>d\-mmm</c:formatCode>
-                <c:ptCount val="19"/>
+                <c:ptCount val="17"/>
                 <c:pt idx="0">
                   <c:v>42052</c:v>
                 </c:pt>
@@ -311,45 +300,39 @@
                   <c:v>42059</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>42060</c:v>
+                  <c:v>42061</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>42061</c:v>
+                  <c:v>42062</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>42062</c:v>
+                  <c:v>42065</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>42063</c:v>
+                  <c:v>42066</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>42065</c:v>
+                  <c:v>42067</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>42066</c:v>
+                  <c:v>42068</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>42067</c:v>
+                  <c:v>42069</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>42068</c:v>
+                  <c:v>42072</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>42069</c:v>
+                  <c:v>42073</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>42072</c:v>
+                  <c:v>42074</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>42073</c:v>
+                  <c:v>42075</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>42074</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>42075</c:v>
-                </c:pt>
-                <c:pt idx="18">
                   <c:v>42076</c:v>
                 </c:pt>
               </c:numCache>
@@ -357,66 +340,60 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$C$2:$C$20</c:f>
+              <c:f>Sheet1!$C$2:$C$18</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="19"/>
+                <c:ptCount val="17"/>
                 <c:pt idx="0">
-                  <c:v>184</c:v>
+                  <c:v>176</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>181</c:v>
+                  <c:v>173</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>172</c:v>
+                  <c:v>164</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>159</c:v>
+                  <c:v>160</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>159</c:v>
+                  <c:v>155</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>159</c:v>
+                  <c:v>155</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>159</c:v>
+                  <c:v>155</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>159</c:v>
+                  <c:v>155</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>159</c:v>
+                  <c:v>155</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>159</c:v>
+                  <c:v>155</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>159</c:v>
+                  <c:v>155</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>159</c:v>
+                  <c:v>155</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>159</c:v>
+                  <c:v>155</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>159</c:v>
+                  <c:v>155</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>159</c:v>
+                  <c:v>155</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>159</c:v>
+                  <c:v>155</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>159</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>159</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>159</c:v>
+                  <c:v>155</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -433,11 +410,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="69942656"/>
-        <c:axId val="102307712"/>
+        <c:axId val="72543616"/>
+        <c:axId val="72545792"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="69942656"/>
+        <c:axId val="72543616"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -466,14 +443,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="102307712"/>
+        <c:crossAx val="72545792"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="102307712"/>
+        <c:axId val="72545792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -503,7 +480,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="69942656"/>
+        <c:crossAx val="72543616"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -847,10 +824,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C20"/>
+  <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -875,10 +852,11 @@
         <v>42052</v>
       </c>
       <c r="B2">
-        <v>234</v>
+        <f t="shared" ref="B2:B8" si="0">B3+13</f>
+        <v>208</v>
       </c>
       <c r="C2">
-        <v>184</v>
+        <v>176</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -886,12 +864,12 @@
         <v>42053</v>
       </c>
       <c r="B3">
-        <f>B2-13</f>
-        <v>221</v>
+        <f t="shared" si="0"/>
+        <v>195</v>
       </c>
       <c r="C3">
         <f>C2-3</f>
-        <v>181</v>
+        <v>173</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -899,12 +877,12 @@
         <v>42055</v>
       </c>
       <c r="B4">
-        <f t="shared" ref="B4:C20" si="0">B3-13</f>
-        <v>208</v>
+        <f t="shared" si="0"/>
+        <v>182</v>
       </c>
       <c r="C4">
         <f>C3-9</f>
-        <v>172</v>
+        <v>164</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -913,11 +891,11 @@
       </c>
       <c r="B5">
         <f t="shared" si="0"/>
-        <v>195</v>
+        <v>169</v>
       </c>
       <c r="C5">
-        <f>C4-13</f>
-        <v>159</v>
+        <f>C4-4</f>
+        <v>160</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -926,193 +904,166 @@
       </c>
       <c r="B6">
         <f t="shared" si="0"/>
-        <v>182</v>
+        <v>156</v>
       </c>
       <c r="C6">
-        <f t="shared" ref="C6:C20" si="1">C5</f>
-        <v>159</v>
+        <f>C5-5</f>
+        <v>155</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
-        <v>42060</v>
+        <v>42061</v>
       </c>
       <c r="B7">
         <f t="shared" si="0"/>
-        <v>169</v>
+        <v>143</v>
       </c>
       <c r="C7">
-        <f t="shared" si="1"/>
-        <v>159</v>
+        <f t="shared" ref="C6:C18" si="1">C6</f>
+        <v>155</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
-        <v>42061</v>
+        <v>42062</v>
       </c>
       <c r="B8">
         <f t="shared" si="0"/>
-        <v>156</v>
+        <v>130</v>
       </c>
       <c r="C8">
         <f t="shared" si="1"/>
-        <v>159</v>
+        <v>155</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
-        <v>42062</v>
+        <v>42065</v>
       </c>
       <c r="B9">
-        <f t="shared" si="0"/>
-        <v>143</v>
+        <f>B10+13</f>
+        <v>117</v>
       </c>
       <c r="C9">
         <f t="shared" si="1"/>
-        <v>159</v>
+        <v>155</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
-        <v>42063</v>
+        <v>42066</v>
       </c>
       <c r="B10">
-        <f t="shared" si="0"/>
-        <v>130</v>
+        <f>B11+13</f>
+        <v>104</v>
       </c>
       <c r="C10">
         <f t="shared" si="1"/>
-        <v>159</v>
+        <v>155</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
-        <v>42065</v>
+        <v>42067</v>
       </c>
       <c r="B11">
-        <f t="shared" si="0"/>
-        <v>117</v>
+        <f>B12+13</f>
+        <v>91</v>
       </c>
       <c r="C11">
         <f t="shared" si="1"/>
-        <v>159</v>
+        <v>155</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
-        <v>42066</v>
+        <v>42068</v>
       </c>
       <c r="B12">
-        <f t="shared" si="0"/>
-        <v>104</v>
+        <f>B13+13</f>
+        <v>78</v>
       </c>
       <c r="C12">
         <f t="shared" si="1"/>
-        <v>159</v>
+        <v>155</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
-        <v>42067</v>
+        <v>42069</v>
       </c>
       <c r="B13">
-        <f t="shared" si="0"/>
-        <v>91</v>
+        <f>B14+13</f>
+        <v>65</v>
       </c>
       <c r="C13">
         <f t="shared" si="1"/>
-        <v>159</v>
+        <v>155</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
-        <v>42068</v>
+        <v>42072</v>
       </c>
       <c r="B14">
-        <f t="shared" si="0"/>
-        <v>78</v>
+        <f>B15+13</f>
+        <v>52</v>
       </c>
       <c r="C14">
         <f t="shared" si="1"/>
-        <v>159</v>
+        <v>155</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
-        <v>42069</v>
+        <v>42073</v>
       </c>
       <c r="B15">
-        <f t="shared" si="0"/>
-        <v>65</v>
+        <f>B16+13</f>
+        <v>39</v>
       </c>
       <c r="C15">
         <f t="shared" si="1"/>
-        <v>159</v>
+        <v>155</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
-        <v>42072</v>
+        <v>42074</v>
       </c>
       <c r="B16">
-        <f t="shared" si="0"/>
-        <v>52</v>
+        <f>B17+13</f>
+        <v>26</v>
       </c>
       <c r="C16">
         <f t="shared" si="1"/>
-        <v>159</v>
+        <v>155</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
-        <v>42073</v>
+        <v>42075</v>
       </c>
       <c r="B17">
-        <f t="shared" si="0"/>
-        <v>39</v>
+        <f>B18+13</f>
+        <v>13</v>
       </c>
       <c r="C17">
         <f t="shared" si="1"/>
-        <v>159</v>
+        <v>155</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
-        <v>42074</v>
+        <v>42076</v>
       </c>
       <c r="B18">
-        <f t="shared" si="0"/>
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="C18">
         <f t="shared" si="1"/>
-        <v>159</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="1">
-        <v>42075</v>
-      </c>
-      <c r="B19">
-        <f t="shared" si="0"/>
-        <v>13</v>
-      </c>
-      <c r="C19">
-        <f t="shared" si="1"/>
-        <v>159</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="1">
-        <v>42076</v>
-      </c>
-      <c r="B20">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="C20">
-        <f t="shared" si="1"/>
-        <v>159</v>
+        <v>155</v>
       </c>
     </row>
   </sheetData>

--- a/SPSWENG_SystemScape_BurnDownChart_v1.xlsx
+++ b/SPSWENG_SystemScape_BurnDownChart_v1.xlsx
@@ -357,43 +357,43 @@
                   <c:v>160</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>155</c:v>
+                  <c:v>147</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>155</c:v>
+                  <c:v>139</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>155</c:v>
+                  <c:v>139</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>155</c:v>
+                  <c:v>139</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>155</c:v>
+                  <c:v>139</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>155</c:v>
+                  <c:v>139</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>155</c:v>
+                  <c:v>139</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>155</c:v>
+                  <c:v>139</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>155</c:v>
+                  <c:v>139</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>155</c:v>
+                  <c:v>139</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>155</c:v>
+                  <c:v>139</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>155</c:v>
+                  <c:v>139</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>155</c:v>
+                  <c:v>139</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -827,7 +827,7 @@
   <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -907,8 +907,8 @@
         <v>156</v>
       </c>
       <c r="C6">
-        <f>C5-5</f>
-        <v>155</v>
+        <f>C5-13</f>
+        <v>147</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -920,8 +920,8 @@
         <v>143</v>
       </c>
       <c r="C7">
-        <f t="shared" ref="C6:C18" si="1">C6</f>
-        <v>155</v>
+        <f>C6-8</f>
+        <v>139</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -933,8 +933,8 @@
         <v>130</v>
       </c>
       <c r="C8">
-        <f t="shared" si="1"/>
-        <v>155</v>
+        <f t="shared" ref="C6:C18" si="1">C7</f>
+        <v>139</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
@@ -947,7 +947,7 @@
       </c>
       <c r="C9">
         <f t="shared" si="1"/>
-        <v>155</v>
+        <v>139</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
@@ -960,7 +960,7 @@
       </c>
       <c r="C10">
         <f t="shared" si="1"/>
-        <v>155</v>
+        <v>139</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
@@ -973,7 +973,7 @@
       </c>
       <c r="C11">
         <f t="shared" si="1"/>
-        <v>155</v>
+        <v>139</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
@@ -986,7 +986,7 @@
       </c>
       <c r="C12">
         <f t="shared" si="1"/>
-        <v>155</v>
+        <v>139</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
@@ -999,7 +999,7 @@
       </c>
       <c r="C13">
         <f t="shared" si="1"/>
-        <v>155</v>
+        <v>139</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
@@ -1012,7 +1012,7 @@
       </c>
       <c r="C14">
         <f t="shared" si="1"/>
-        <v>155</v>
+        <v>139</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
@@ -1025,7 +1025,7 @@
       </c>
       <c r="C15">
         <f t="shared" si="1"/>
-        <v>155</v>
+        <v>139</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
@@ -1038,7 +1038,7 @@
       </c>
       <c r="C16">
         <f t="shared" si="1"/>
-        <v>155</v>
+        <v>139</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
@@ -1051,7 +1051,7 @@
       </c>
       <c r="C17">
         <f t="shared" si="1"/>
-        <v>155</v>
+        <v>139</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
@@ -1063,7 +1063,7 @@
       </c>
       <c r="C18">
         <f t="shared" si="1"/>
-        <v>155</v>
+        <v>139</v>
       </c>
     </row>
   </sheetData>

--- a/SPSWENG_SystemScape_BurnDownChart_v1.xlsx
+++ b/SPSWENG_SystemScape_BurnDownChart_v1.xlsx
@@ -363,37 +363,37 @@
                   <c:v>139</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>139</c:v>
+                  <c:v>123</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>139</c:v>
+                  <c:v>117</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>139</c:v>
+                  <c:v>117</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>139</c:v>
+                  <c:v>117</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>139</c:v>
+                  <c:v>117</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>139</c:v>
+                  <c:v>117</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>139</c:v>
+                  <c:v>117</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>139</c:v>
+                  <c:v>117</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>139</c:v>
+                  <c:v>117</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>139</c:v>
+                  <c:v>117</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>139</c:v>
+                  <c:v>117</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -410,11 +410,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="72543616"/>
-        <c:axId val="72545792"/>
+        <c:axId val="68348160"/>
+        <c:axId val="68350336"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="72543616"/>
+        <c:axId val="68348160"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -443,14 +443,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="72545792"/>
+        <c:crossAx val="68350336"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="72545792"/>
+        <c:axId val="68350336"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -480,7 +480,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="72543616"/>
+        <c:crossAx val="68348160"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -827,7 +827,7 @@
   <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -933,8 +933,8 @@
         <v>130</v>
       </c>
       <c r="C8">
-        <f t="shared" ref="C6:C18" si="1">C7</f>
-        <v>139</v>
+        <f>C7-16</f>
+        <v>123</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
@@ -942,12 +942,12 @@
         <v>42065</v>
       </c>
       <c r="B9">
-        <f>B10+13</f>
+        <f t="shared" ref="B9:B17" si="1">B10+13</f>
         <v>117</v>
       </c>
       <c r="C9">
-        <f t="shared" si="1"/>
-        <v>139</v>
+        <f>C8-6</f>
+        <v>117</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
@@ -955,12 +955,12 @@
         <v>42066</v>
       </c>
       <c r="B10">
-        <f>B11+13</f>
+        <f t="shared" si="1"/>
         <v>104</v>
       </c>
       <c r="C10">
-        <f t="shared" si="1"/>
-        <v>139</v>
+        <f t="shared" ref="C10:C18" si="2">C9</f>
+        <v>117</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
@@ -968,12 +968,12 @@
         <v>42067</v>
       </c>
       <c r="B11">
-        <f>B12+13</f>
+        <f t="shared" si="1"/>
         <v>91</v>
       </c>
       <c r="C11">
-        <f t="shared" si="1"/>
-        <v>139</v>
+        <f t="shared" si="2"/>
+        <v>117</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
@@ -981,12 +981,12 @@
         <v>42068</v>
       </c>
       <c r="B12">
-        <f>B13+13</f>
+        <f t="shared" si="1"/>
         <v>78</v>
       </c>
       <c r="C12">
-        <f t="shared" si="1"/>
-        <v>139</v>
+        <f t="shared" si="2"/>
+        <v>117</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
@@ -994,12 +994,12 @@
         <v>42069</v>
       </c>
       <c r="B13">
-        <f>B14+13</f>
+        <f t="shared" si="1"/>
         <v>65</v>
       </c>
       <c r="C13">
-        <f t="shared" si="1"/>
-        <v>139</v>
+        <f t="shared" si="2"/>
+        <v>117</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
@@ -1007,12 +1007,12 @@
         <v>42072</v>
       </c>
       <c r="B14">
-        <f>B15+13</f>
+        <f t="shared" si="1"/>
         <v>52</v>
       </c>
       <c r="C14">
-        <f t="shared" si="1"/>
-        <v>139</v>
+        <f t="shared" si="2"/>
+        <v>117</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
@@ -1020,12 +1020,12 @@
         <v>42073</v>
       </c>
       <c r="B15">
-        <f>B16+13</f>
+        <f t="shared" si="1"/>
         <v>39</v>
       </c>
       <c r="C15">
-        <f t="shared" si="1"/>
-        <v>139</v>
+        <f t="shared" si="2"/>
+        <v>117</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
@@ -1033,12 +1033,12 @@
         <v>42074</v>
       </c>
       <c r="B16">
-        <f>B17+13</f>
+        <f t="shared" si="1"/>
         <v>26</v>
       </c>
       <c r="C16">
-        <f t="shared" si="1"/>
-        <v>139</v>
+        <f t="shared" si="2"/>
+        <v>117</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
@@ -1046,12 +1046,12 @@
         <v>42075</v>
       </c>
       <c r="B17">
-        <f>B18+13</f>
+        <f t="shared" si="1"/>
         <v>13</v>
       </c>
       <c r="C17">
-        <f t="shared" si="1"/>
-        <v>139</v>
+        <f t="shared" si="2"/>
+        <v>117</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
@@ -1062,8 +1062,8 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <f t="shared" si="1"/>
-        <v>139</v>
+        <f t="shared" si="2"/>
+        <v>117</v>
       </c>
     </row>
   </sheetData>

--- a/SPSWENG_SystemScape_BurnDownChart_v1.xlsx
+++ b/SPSWENG_SystemScape_BurnDownChart_v1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="720" yWindow="630" windowWidth="10530" windowHeight="7440"/>
+    <workbookView xWindow="6705" yWindow="3975" windowWidth="3315" windowHeight="3990"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -375,25 +375,25 @@
                   <c:v>117</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>117</c:v>
+                  <c:v>107</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>117</c:v>
+                  <c:v>107</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>117</c:v>
+                  <c:v>101</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>117</c:v>
+                  <c:v>101</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>117</c:v>
+                  <c:v>101</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>117</c:v>
+                  <c:v>101</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>117</c:v>
+                  <c:v>101</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -827,7 +827,7 @@
   <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -985,8 +985,8 @@
         <v>78</v>
       </c>
       <c r="C12">
-        <f t="shared" si="2"/>
-        <v>117</v>
+        <f>C11-10</f>
+        <v>107</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
@@ -999,7 +999,7 @@
       </c>
       <c r="C13">
         <f t="shared" si="2"/>
-        <v>117</v>
+        <v>107</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
@@ -1011,8 +1011,8 @@
         <v>52</v>
       </c>
       <c r="C14">
-        <f t="shared" si="2"/>
-        <v>117</v>
+        <f>C13-6</f>
+        <v>101</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
@@ -1025,7 +1025,7 @@
       </c>
       <c r="C15">
         <f t="shared" si="2"/>
-        <v>117</v>
+        <v>101</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
@@ -1038,7 +1038,7 @@
       </c>
       <c r="C16">
         <f t="shared" si="2"/>
-        <v>117</v>
+        <v>101</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
@@ -1051,7 +1051,7 @@
       </c>
       <c r="C17">
         <f t="shared" si="2"/>
-        <v>117</v>
+        <v>101</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
@@ -1063,7 +1063,7 @@
       </c>
       <c r="C18">
         <f t="shared" si="2"/>
-        <v>117</v>
+        <v>101</v>
       </c>
     </row>
   </sheetData>

--- a/SPSWENG_SystemScape_BurnDownChart_v1.xlsx
+++ b/SPSWENG_SystemScape_BurnDownChart_v1.xlsx
@@ -387,13 +387,13 @@
                   <c:v>101</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>101</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>101</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>101</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -410,11 +410,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="68348160"/>
-        <c:axId val="68350336"/>
+        <c:axId val="68562304"/>
+        <c:axId val="68564480"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="68348160"/>
+        <c:axId val="68562304"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -443,14 +443,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="68350336"/>
+        <c:crossAx val="68564480"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="68350336"/>
+        <c:axId val="68564480"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -480,7 +480,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="68348160"/>
+        <c:crossAx val="68562304"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -827,7 +827,7 @@
   <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1037,8 +1037,8 @@
         <v>26</v>
       </c>
       <c r="C16">
-        <f t="shared" si="2"/>
-        <v>101</v>
+        <f>C15-90</f>
+        <v>11</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
@@ -1051,7 +1051,7 @@
       </c>
       <c r="C17">
         <f t="shared" si="2"/>
-        <v>101</v>
+        <v>11</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
@@ -1063,7 +1063,7 @@
       </c>
       <c r="C18">
         <f t="shared" si="2"/>
-        <v>101</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/SPSWENG_SystemScape_BurnDownChart_v1.xlsx
+++ b/SPSWENG_SystemScape_BurnDownChart_v1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="6705" yWindow="3975" windowWidth="3315" windowHeight="3990"/>
+    <workbookView xWindow="6705" yWindow="3975" windowWidth="3315" windowHeight="3990" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="3">
   <si>
     <t>Hours Left</t>
   </si>
@@ -410,11 +410,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="68562304"/>
-        <c:axId val="68564480"/>
+        <c:axId val="49421696"/>
+        <c:axId val="49423872"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="68562304"/>
+        <c:axId val="49421696"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -443,14 +443,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="68564480"/>
+        <c:crossAx val="49423872"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="68564480"/>
+        <c:axId val="49423872"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -480,7 +480,479 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="68562304"/>
+        <c:crossAx val="49421696"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="142"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="42"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>SystemScape</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> Iteration 2 Burn Down Chart</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Hours Left</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet2!$A$2:$A$22</c:f>
+              <c:numCache>
+                <c:formatCode>d\-mmm</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>42079</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>42080</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>42081</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>42082</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>42083</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>42086</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>42087</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>42088</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>42089</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>42090</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>42093</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>42094</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>42100</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>42101</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>42102</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>42104</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>42107</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>42108</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>42109</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>42110</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>42111</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$B$2:$B$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>260</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>247</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>234</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>221</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>208</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>195</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>182</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>169</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>156</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>143</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>130</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>117</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>104</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Burn-Down</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet2!$A$2:$A$22</c:f>
+              <c:numCache>
+                <c:formatCode>d\-mmm</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>42079</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>42080</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>42081</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>42082</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>42083</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>42086</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>42087</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>42088</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>42089</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>42090</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>42093</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>42094</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>42100</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>42101</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>42102</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>42104</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>42107</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>42108</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>42109</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>42110</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>42111</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$C$2:$C$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>153</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>153</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>153</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>153</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>153</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>153</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>153</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>153</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>153</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>153</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>153</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>153</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>153</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>153</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>153</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>153</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>153</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>153</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>153</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>153</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>153</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="119915264"/>
+        <c:axId val="118757632"/>
+      </c:lineChart>
+      <c:dateAx>
+        <c:axId val="119915264"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Date</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="d\-mmm" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="118757632"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblOffset val="100"/>
+        <c:baseTimeUnit val="days"/>
+      </c:dateAx>
+      <c:valAx>
+        <c:axId val="118757632"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" vert="wordArtVert"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Hours LEft</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="119915264"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -516,6 +988,41 @@
       <xdr:colOff>209550</xdr:colOff>
       <xdr:row>24</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>114299</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>9524</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -826,8 +1333,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1074,13 +1581,290 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:C22"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="2" max="2" width="10" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>42079</v>
+      </c>
+      <c r="B2">
+        <f t="shared" ref="B2:B13" si="0">B3+13</f>
+        <v>260</v>
+      </c>
+      <c r="C2">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>42080</v>
+      </c>
+      <c r="B3">
+        <f t="shared" si="0"/>
+        <v>247</v>
+      </c>
+      <c r="C3">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>42081</v>
+      </c>
+      <c r="B4">
+        <f t="shared" si="0"/>
+        <v>234</v>
+      </c>
+      <c r="C4">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>42082</v>
+      </c>
+      <c r="B5">
+        <f t="shared" si="0"/>
+        <v>221</v>
+      </c>
+      <c r="C5">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>42083</v>
+      </c>
+      <c r="B6">
+        <f t="shared" si="0"/>
+        <v>208</v>
+      </c>
+      <c r="C6">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>42086</v>
+      </c>
+      <c r="B7">
+        <f t="shared" si="0"/>
+        <v>195</v>
+      </c>
+      <c r="C7">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>42087</v>
+      </c>
+      <c r="B8">
+        <f t="shared" si="0"/>
+        <v>182</v>
+      </c>
+      <c r="C8">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>42088</v>
+      </c>
+      <c r="B9">
+        <f t="shared" si="0"/>
+        <v>169</v>
+      </c>
+      <c r="C9">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>42089</v>
+      </c>
+      <c r="B10">
+        <f t="shared" si="0"/>
+        <v>156</v>
+      </c>
+      <c r="C10">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>42090</v>
+      </c>
+      <c r="B11">
+        <f t="shared" si="0"/>
+        <v>143</v>
+      </c>
+      <c r="C11">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>42093</v>
+      </c>
+      <c r="B12">
+        <f t="shared" si="0"/>
+        <v>130</v>
+      </c>
+      <c r="C12">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <v>42094</v>
+      </c>
+      <c r="B13">
+        <f t="shared" si="0"/>
+        <v>117</v>
+      </c>
+      <c r="C13">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
+        <v>42100</v>
+      </c>
+      <c r="B14">
+        <f>B15+13</f>
+        <v>104</v>
+      </c>
+      <c r="C14">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <v>42101</v>
+      </c>
+      <c r="B15">
+        <f>B16+13</f>
+        <v>91</v>
+      </c>
+      <c r="C15">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
+        <v>42102</v>
+      </c>
+      <c r="B16">
+        <f>B17+13</f>
+        <v>78</v>
+      </c>
+      <c r="C16">
+        <f>C15</f>
+        <v>153</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
+        <v>42104</v>
+      </c>
+      <c r="B17">
+        <f>B18+13</f>
+        <v>65</v>
+      </c>
+      <c r="C17">
+        <f>C16</f>
+        <v>153</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
+        <v>42107</v>
+      </c>
+      <c r="B18">
+        <f>B19+13</f>
+        <v>52</v>
+      </c>
+      <c r="C18">
+        <f>C17</f>
+        <v>153</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
+        <v>42108</v>
+      </c>
+      <c r="B19">
+        <f>B20+13</f>
+        <v>39</v>
+      </c>
+      <c r="C19">
+        <f>C18</f>
+        <v>153</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
+        <v>42109</v>
+      </c>
+      <c r="B20">
+        <f>B21+13</f>
+        <v>26</v>
+      </c>
+      <c r="C20">
+        <f>C19</f>
+        <v>153</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
+        <v>42110</v>
+      </c>
+      <c r="B21">
+        <f>B22+13</f>
+        <v>13</v>
+      </c>
+      <c r="C21">
+        <f>C20</f>
+        <v>153</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="1">
+        <v>42111</v>
+      </c>
+      <c r="B22">
+        <v>0</v>
+      </c>
+      <c r="C22">
+        <f>C21</f>
+        <v>153</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/SPSWENG_SystemScape_BurnDownChart_v1.xlsx
+++ b/SPSWENG_SystemScape_BurnDownChart_v1.xlsx
@@ -113,7 +113,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -410,11 +409,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="49421696"/>
-        <c:axId val="49423872"/>
+        <c:axId val="106408576"/>
+        <c:axId val="79061760"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="49421696"/>
+        <c:axId val="106408576"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -436,21 +435,20 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="d\-mmm" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="49423872"/>
+        <c:crossAx val="79061760"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="49423872"/>
+        <c:axId val="79061760"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -473,21 +471,19 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="49421696"/>
+        <c:crossAx val="106408576"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -805,67 +801,67 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="21"/>
                 <c:pt idx="0">
-                  <c:v>153</c:v>
+                  <c:v>248</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>153</c:v>
+                  <c:v>233.5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>153</c:v>
+                  <c:v>219</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>153</c:v>
+                  <c:v>204.5</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>153</c:v>
+                  <c:v>190</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>153</c:v>
+                  <c:v>177.5</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>153</c:v>
+                  <c:v>177.5</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>153</c:v>
+                  <c:v>177.5</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>153</c:v>
+                  <c:v>177.5</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>153</c:v>
+                  <c:v>177.5</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>153</c:v>
+                  <c:v>177.5</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>153</c:v>
+                  <c:v>177.5</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>153</c:v>
+                  <c:v>177.5</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>153</c:v>
+                  <c:v>177.5</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>153</c:v>
+                  <c:v>177.5</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>153</c:v>
+                  <c:v>177.5</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>153</c:v>
+                  <c:v>177.5</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>153</c:v>
+                  <c:v>177.5</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>153</c:v>
+                  <c:v>177.5</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>153</c:v>
+                  <c:v>177.5</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>153</c:v>
+                  <c:v>177.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -882,11 +878,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="119915264"/>
-        <c:axId val="118757632"/>
+        <c:axId val="107991040"/>
+        <c:axId val="107992960"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="119915264"/>
+        <c:axId val="107991040"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -915,14 +911,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="118757632"/>
+        <c:crossAx val="107992960"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="118757632"/>
+        <c:axId val="107992960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -952,7 +948,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="119915264"/>
+        <c:crossAx val="107991040"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1584,7 +1580,7 @@
   <dimension ref="A1:C22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1613,7 +1609,7 @@
         <v>260</v>
       </c>
       <c r="C2">
-        <v>153</v>
+        <v>248</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -1625,7 +1621,8 @@
         <v>247</v>
       </c>
       <c r="C3">
-        <v>153</v>
+        <f>C2-14.5</f>
+        <v>233.5</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -1637,7 +1634,8 @@
         <v>234</v>
       </c>
       <c r="C4">
-        <v>153</v>
+        <f>C3-14.5</f>
+        <v>219</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -1649,7 +1647,8 @@
         <v>221</v>
       </c>
       <c r="C5">
-        <v>153</v>
+        <f>C4-14.5</f>
+        <v>204.5</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -1661,7 +1660,8 @@
         <v>208</v>
       </c>
       <c r="C6">
-        <v>153</v>
+        <f>C5-14.5</f>
+        <v>190</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -1673,7 +1673,8 @@
         <v>195</v>
       </c>
       <c r="C7">
-        <v>153</v>
+        <f>C6-12.5</f>
+        <v>177.5</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -1685,7 +1686,8 @@
         <v>182</v>
       </c>
       <c r="C8">
-        <v>153</v>
+        <f t="shared" ref="C8:C22" si="1">C7</f>
+        <v>177.5</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
@@ -1697,7 +1699,8 @@
         <v>169</v>
       </c>
       <c r="C9">
-        <v>153</v>
+        <f t="shared" si="1"/>
+        <v>177.5</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
@@ -1709,7 +1712,8 @@
         <v>156</v>
       </c>
       <c r="C10">
-        <v>153</v>
+        <f t="shared" si="1"/>
+        <v>177.5</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
@@ -1721,7 +1725,8 @@
         <v>143</v>
       </c>
       <c r="C11">
-        <v>153</v>
+        <f t="shared" si="1"/>
+        <v>177.5</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
@@ -1733,7 +1738,8 @@
         <v>130</v>
       </c>
       <c r="C12">
-        <v>153</v>
+        <f t="shared" si="1"/>
+        <v>177.5</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
@@ -1745,7 +1751,8 @@
         <v>117</v>
       </c>
       <c r="C13">
-        <v>153</v>
+        <f t="shared" si="1"/>
+        <v>177.5</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
@@ -1753,11 +1760,12 @@
         <v>42100</v>
       </c>
       <c r="B14">
-        <f>B15+13</f>
+        <f t="shared" ref="B14:B21" si="2">B15+13</f>
         <v>104</v>
       </c>
       <c r="C14">
-        <v>153</v>
+        <f t="shared" si="1"/>
+        <v>177.5</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
@@ -1765,11 +1773,12 @@
         <v>42101</v>
       </c>
       <c r="B15">
-        <f>B16+13</f>
+        <f t="shared" si="2"/>
         <v>91</v>
       </c>
       <c r="C15">
-        <v>153</v>
+        <f t="shared" si="1"/>
+        <v>177.5</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
@@ -1777,12 +1786,12 @@
         <v>42102</v>
       </c>
       <c r="B16">
-        <f>B17+13</f>
+        <f t="shared" si="2"/>
         <v>78</v>
       </c>
       <c r="C16">
-        <f>C15</f>
-        <v>153</v>
+        <f t="shared" si="1"/>
+        <v>177.5</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
@@ -1790,12 +1799,12 @@
         <v>42104</v>
       </c>
       <c r="B17">
-        <f>B18+13</f>
+        <f t="shared" si="2"/>
         <v>65</v>
       </c>
       <c r="C17">
-        <f>C16</f>
-        <v>153</v>
+        <f t="shared" si="1"/>
+        <v>177.5</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
@@ -1803,12 +1812,12 @@
         <v>42107</v>
       </c>
       <c r="B18">
-        <f>B19+13</f>
+        <f t="shared" si="2"/>
         <v>52</v>
       </c>
       <c r="C18">
-        <f>C17</f>
-        <v>153</v>
+        <f t="shared" si="1"/>
+        <v>177.5</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
@@ -1816,12 +1825,12 @@
         <v>42108</v>
       </c>
       <c r="B19">
-        <f>B20+13</f>
+        <f t="shared" si="2"/>
         <v>39</v>
       </c>
       <c r="C19">
-        <f>C18</f>
-        <v>153</v>
+        <f t="shared" si="1"/>
+        <v>177.5</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
@@ -1829,12 +1838,12 @@
         <v>42109</v>
       </c>
       <c r="B20">
-        <f>B21+13</f>
+        <f t="shared" si="2"/>
         <v>26</v>
       </c>
       <c r="C20">
-        <f>C19</f>
-        <v>153</v>
+        <f t="shared" si="1"/>
+        <v>177.5</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
@@ -1842,12 +1851,12 @@
         <v>42110</v>
       </c>
       <c r="B21">
-        <f>B22+13</f>
+        <f t="shared" si="2"/>
         <v>13</v>
       </c>
       <c r="C21">
-        <f>C20</f>
-        <v>153</v>
+        <f t="shared" si="1"/>
+        <v>177.5</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
@@ -1858,8 +1867,8 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <f>C21</f>
-        <v>153</v>
+        <f t="shared" si="1"/>
+        <v>177.5</v>
       </c>
     </row>
   </sheetData>

--- a/SPSWENG_SystemScape_BurnDownChart_v1.xlsx
+++ b/SPSWENG_SystemScape_BurnDownChart_v1.xlsx
@@ -409,11 +409,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="106408576"/>
-        <c:axId val="79061760"/>
+        <c:axId val="117242496"/>
+        <c:axId val="117314304"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="106408576"/>
+        <c:axId val="117242496"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -441,14 +441,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="79061760"/>
+        <c:crossAx val="117314304"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="79061760"/>
+        <c:axId val="117314304"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -477,7 +477,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="106408576"/>
+        <c:crossAx val="117242496"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -816,52 +816,52 @@
                   <c:v>190</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>177.5</c:v>
+                  <c:v>184.5</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>177.5</c:v>
+                  <c:v>172.5</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>177.5</c:v>
+                  <c:v>157.5</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>177.5</c:v>
+                  <c:v>157.5</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>177.5</c:v>
+                  <c:v>157.5</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>177.5</c:v>
+                  <c:v>157.5</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>177.5</c:v>
+                  <c:v>157.5</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>177.5</c:v>
+                  <c:v>157.5</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>177.5</c:v>
+                  <c:v>157.5</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>177.5</c:v>
+                  <c:v>157.5</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>177.5</c:v>
+                  <c:v>157.5</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>177.5</c:v>
+                  <c:v>157.5</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>177.5</c:v>
+                  <c:v>157.5</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>177.5</c:v>
+                  <c:v>157.5</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>177.5</c:v>
+                  <c:v>157.5</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>177.5</c:v>
+                  <c:v>157.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -878,11 +878,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="107991040"/>
-        <c:axId val="107992960"/>
+        <c:axId val="117354496"/>
+        <c:axId val="117356416"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="107991040"/>
+        <c:axId val="117354496"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -911,14 +911,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="107992960"/>
+        <c:crossAx val="117356416"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="107992960"/>
+        <c:axId val="117356416"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -948,7 +948,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="107991040"/>
+        <c:crossAx val="117354496"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1580,7 +1580,7 @@
   <dimension ref="A1:C22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1673,8 +1673,8 @@
         <v>195</v>
       </c>
       <c r="C7">
-        <f>C6-12.5</f>
-        <v>177.5</v>
+        <f>C6-5.5</f>
+        <v>184.5</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -1686,8 +1686,8 @@
         <v>182</v>
       </c>
       <c r="C8">
-        <f t="shared" ref="C8:C22" si="1">C7</f>
-        <v>177.5</v>
+        <f>C7-12</f>
+        <v>172.5</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
@@ -1699,8 +1699,8 @@
         <v>169</v>
       </c>
       <c r="C9">
-        <f t="shared" si="1"/>
-        <v>177.5</v>
+        <f>C8-15</f>
+        <v>157.5</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
@@ -1712,8 +1712,8 @@
         <v>156</v>
       </c>
       <c r="C10">
-        <f t="shared" si="1"/>
-        <v>177.5</v>
+        <f>C9</f>
+        <v>157.5</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
@@ -1725,8 +1725,8 @@
         <v>143</v>
       </c>
       <c r="C11">
-        <f t="shared" si="1"/>
-        <v>177.5</v>
+        <f t="shared" ref="C8:C22" si="1">C10</f>
+        <v>157.5</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
@@ -1739,7 +1739,7 @@
       </c>
       <c r="C12">
         <f t="shared" si="1"/>
-        <v>177.5</v>
+        <v>157.5</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
@@ -1752,7 +1752,7 @@
       </c>
       <c r="C13">
         <f t="shared" si="1"/>
-        <v>177.5</v>
+        <v>157.5</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
@@ -1765,7 +1765,7 @@
       </c>
       <c r="C14">
         <f t="shared" si="1"/>
-        <v>177.5</v>
+        <v>157.5</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
@@ -1778,7 +1778,7 @@
       </c>
       <c r="C15">
         <f t="shared" si="1"/>
-        <v>177.5</v>
+        <v>157.5</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
@@ -1791,7 +1791,7 @@
       </c>
       <c r="C16">
         <f t="shared" si="1"/>
-        <v>177.5</v>
+        <v>157.5</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
@@ -1804,7 +1804,7 @@
       </c>
       <c r="C17">
         <f t="shared" si="1"/>
-        <v>177.5</v>
+        <v>157.5</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
@@ -1817,7 +1817,7 @@
       </c>
       <c r="C18">
         <f t="shared" si="1"/>
-        <v>177.5</v>
+        <v>157.5</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
@@ -1830,7 +1830,7 @@
       </c>
       <c r="C19">
         <f t="shared" si="1"/>
-        <v>177.5</v>
+        <v>157.5</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
@@ -1843,7 +1843,7 @@
       </c>
       <c r="C20">
         <f t="shared" si="1"/>
-        <v>177.5</v>
+        <v>157.5</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
@@ -1856,7 +1856,7 @@
       </c>
       <c r="C21">
         <f t="shared" si="1"/>
-        <v>177.5</v>
+        <v>157.5</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
@@ -1868,7 +1868,7 @@
       </c>
       <c r="C22">
         <f t="shared" si="1"/>
-        <v>177.5</v>
+        <v>157.5</v>
       </c>
     </row>
   </sheetData>

--- a/SPSWENG_SystemScape_BurnDownChart_v1.xlsx
+++ b/SPSWENG_SystemScape_BurnDownChart_v1.xlsx
@@ -527,7 +527,16 @@
             </a:r>
             <a:r>
               <a:rPr lang="en-US" baseline="0"/>
-              <a:t> Iteration 2 Burn Down Chart</a:t>
+              <a:t> Iteration 2 </a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t>Burn Down Chart</a:t>
             </a:r>
             <a:endParaRPr lang="en-US"/>
           </a:p>
@@ -825,43 +834,43 @@
                   <c:v>157.5</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>157.5</c:v>
+                  <c:v>148</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>157.5</c:v>
+                  <c:v>136</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>157.5</c:v>
+                  <c:v>136</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>157.5</c:v>
+                  <c:v>136</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>157.5</c:v>
+                  <c:v>136</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>157.5</c:v>
+                  <c:v>136</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>157.5</c:v>
+                  <c:v>136</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>157.5</c:v>
+                  <c:v>136</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>157.5</c:v>
+                  <c:v>136</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>157.5</c:v>
+                  <c:v>136</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>157.5</c:v>
+                  <c:v>136</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>157.5</c:v>
+                  <c:v>136</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>157.5</c:v>
+                  <c:v>136</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1010,15 +1019,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>285750</xdr:colOff>
+      <xdr:colOff>285749</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>114299</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>247650</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>9524</xdr:rowOff>
+      <xdr:colOff>561974</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1580,7 +1589,7 @@
   <dimension ref="A1:C22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="S8" sqref="S8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1712,8 +1721,8 @@
         <v>156</v>
       </c>
       <c r="C10">
-        <f>C9</f>
-        <v>157.5</v>
+        <f>C9-9.5</f>
+        <v>148</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
@@ -1725,8 +1734,8 @@
         <v>143</v>
       </c>
       <c r="C11">
-        <f t="shared" ref="C8:C22" si="1">C10</f>
-        <v>157.5</v>
+        <f>C10-12</f>
+        <v>136</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
@@ -1738,8 +1747,8 @@
         <v>130</v>
       </c>
       <c r="C12">
-        <f t="shared" si="1"/>
-        <v>157.5</v>
+        <f t="shared" ref="C8:C22" si="1">C11</f>
+        <v>136</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
@@ -1752,7 +1761,7 @@
       </c>
       <c r="C13">
         <f t="shared" si="1"/>
-        <v>157.5</v>
+        <v>136</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
@@ -1765,7 +1774,7 @@
       </c>
       <c r="C14">
         <f t="shared" si="1"/>
-        <v>157.5</v>
+        <v>136</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
@@ -1778,7 +1787,7 @@
       </c>
       <c r="C15">
         <f t="shared" si="1"/>
-        <v>157.5</v>
+        <v>136</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
@@ -1791,7 +1800,7 @@
       </c>
       <c r="C16">
         <f t="shared" si="1"/>
-        <v>157.5</v>
+        <v>136</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
@@ -1804,7 +1813,7 @@
       </c>
       <c r="C17">
         <f t="shared" si="1"/>
-        <v>157.5</v>
+        <v>136</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
@@ -1817,7 +1826,7 @@
       </c>
       <c r="C18">
         <f t="shared" si="1"/>
-        <v>157.5</v>
+        <v>136</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
@@ -1830,7 +1839,7 @@
       </c>
       <c r="C19">
         <f t="shared" si="1"/>
-        <v>157.5</v>
+        <v>136</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
@@ -1843,7 +1852,7 @@
       </c>
       <c r="C20">
         <f t="shared" si="1"/>
-        <v>157.5</v>
+        <v>136</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
@@ -1856,7 +1865,7 @@
       </c>
       <c r="C21">
         <f t="shared" si="1"/>
-        <v>157.5</v>
+        <v>136</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
@@ -1868,7 +1877,7 @@
       </c>
       <c r="C22">
         <f t="shared" si="1"/>
-        <v>157.5</v>
+        <v>136</v>
       </c>
     </row>
   </sheetData>

--- a/SPSWENG_SystemScape_BurnDownChart_v1.xlsx
+++ b/SPSWENG_SystemScape_BurnDownChart_v1.xlsx
@@ -11,8 +11,10 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
+  <definedNames>
+    <definedName name="LOCAL_MYSQL_DATE_FORMAT" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
+  </definedNames>
   <calcPr calcId="145621"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
@@ -68,8 +70,36 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD7D7D7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
+      <tableStyleElement type="wholeTable" dxfId="1"/>
+      <tableStyleElement type="headerRow" dxfId="0"/>
+    </tableStyle>
+  </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -113,6 +143,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -409,11 +440,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="117242496"/>
-        <c:axId val="117314304"/>
+        <c:axId val="156001408"/>
+        <c:axId val="156003712"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="117242496"/>
+        <c:axId val="156001408"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -435,20 +466,21 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="d\-mmm" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="117314304"/>
+        <c:crossAx val="156003712"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="117314304"/>
+        <c:axId val="156003712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -471,19 +503,21 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="117242496"/>
+        <c:crossAx val="156001408"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -837,40 +871,40 @@
                   <c:v>148</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>136</c:v>
+                  <c:v>138</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>136</c:v>
+                  <c:v>138</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>136</c:v>
+                  <c:v>138</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>136</c:v>
+                  <c:v>126</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>136</c:v>
+                  <c:v>126</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>136</c:v>
+                  <c:v>126</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>136</c:v>
+                  <c:v>121</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>136</c:v>
+                  <c:v>121</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>136</c:v>
+                  <c:v>121</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>136</c:v>
+                  <c:v>121</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>136</c:v>
+                  <c:v>121</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>136</c:v>
+                  <c:v>121</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -887,11 +921,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="117354496"/>
-        <c:axId val="117356416"/>
+        <c:axId val="162187904"/>
+        <c:axId val="169165568"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="117354496"/>
+        <c:axId val="162187904"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -920,14 +954,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="117356416"/>
+        <c:crossAx val="169165568"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="117356416"/>
+        <c:axId val="169165568"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -957,7 +991,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="117354496"/>
+        <c:crossAx val="162187904"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1589,7 +1623,7 @@
   <dimension ref="A1:C22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S8" sqref="S8"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1734,8 +1768,8 @@
         <v>143</v>
       </c>
       <c r="C11">
-        <f>C10-12</f>
-        <v>136</v>
+        <f>C10-10</f>
+        <v>138</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
@@ -1747,8 +1781,8 @@
         <v>130</v>
       </c>
       <c r="C12">
-        <f t="shared" ref="C8:C22" si="1">C11</f>
-        <v>136</v>
+        <f t="shared" ref="C12:C22" si="1">C11</f>
+        <v>138</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
@@ -1761,7 +1795,7 @@
       </c>
       <c r="C13">
         <f t="shared" si="1"/>
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
@@ -1773,8 +1807,8 @@
         <v>104</v>
       </c>
       <c r="C14">
-        <f t="shared" si="1"/>
-        <v>136</v>
+        <f>C13-12</f>
+        <v>126</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
@@ -1787,7 +1821,7 @@
       </c>
       <c r="C15">
         <f t="shared" si="1"/>
-        <v>136</v>
+        <v>126</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
@@ -1800,7 +1834,7 @@
       </c>
       <c r="C16">
         <f t="shared" si="1"/>
-        <v>136</v>
+        <v>126</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
@@ -1812,8 +1846,8 @@
         <v>65</v>
       </c>
       <c r="C17">
-        <f t="shared" si="1"/>
-        <v>136</v>
+        <f>C16-5</f>
+        <v>121</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
@@ -1826,7 +1860,7 @@
       </c>
       <c r="C18">
         <f t="shared" si="1"/>
-        <v>136</v>
+        <v>121</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
@@ -1839,7 +1873,7 @@
       </c>
       <c r="C19">
         <f t="shared" si="1"/>
-        <v>136</v>
+        <v>121</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
@@ -1852,7 +1886,7 @@
       </c>
       <c r="C20">
         <f t="shared" si="1"/>
-        <v>136</v>
+        <v>121</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
@@ -1865,7 +1899,7 @@
       </c>
       <c r="C21">
         <f t="shared" si="1"/>
-        <v>136</v>
+        <v>121</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
@@ -1877,7 +1911,7 @@
       </c>
       <c r="C22">
         <f t="shared" si="1"/>
-        <v>136</v>
+        <v>121</v>
       </c>
     </row>
   </sheetData>

--- a/SPSWENG_SystemScape_BurnDownChart_v1.xlsx
+++ b/SPSWENG_SystemScape_BurnDownChart_v1.xlsx
@@ -15,6 +15,7 @@
     <definedName name="LOCAL_MYSQL_DATE_FORMAT" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
@@ -143,7 +144,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -440,11 +440,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="156001408"/>
-        <c:axId val="156003712"/>
+        <c:axId val="144747904"/>
+        <c:axId val="73057792"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="156001408"/>
+        <c:axId val="144747904"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -466,21 +466,20 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="d\-mmm" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="156003712"/>
+        <c:crossAx val="73057792"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="156003712"/>
+        <c:axId val="73057792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -503,21 +502,19 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="156001408"/>
+        <c:crossAx val="144747904"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -604,10 +601,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet2!$A$2:$A$22</c:f>
+              <c:f>Sheet2!$A$2:$A$24</c:f>
               <c:numCache>
                 <c:formatCode>d\-mmm</c:formatCode>
-                <c:ptCount val="21"/>
+                <c:ptCount val="23"/>
                 <c:pt idx="0">
                   <c:v>42079</c:v>
                 </c:pt>
@@ -670,77 +667,89 @@
                 </c:pt>
                 <c:pt idx="20">
                   <c:v>42111</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>42114</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>42115</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet2!$B$2:$B$22</c:f>
+              <c:f>Sheet2!$B$2:$B$24</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="21"/>
+                <c:ptCount val="23"/>
                 <c:pt idx="0">
+                  <c:v>286</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>273</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>260</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="3">
                   <c:v>247</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="4">
                   <c:v>234</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="5">
                   <c:v>221</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="6">
                   <c:v>208</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="7">
                   <c:v>195</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="8">
                   <c:v>182</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="9">
                   <c:v>169</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="10">
                   <c:v>156</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="11">
                   <c:v>143</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="12">
                   <c:v>130</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="13">
                   <c:v>117</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="14">
                   <c:v>104</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="15">
                   <c:v>91</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="16">
                   <c:v>78</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="17">
                   <c:v>65</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="18">
                   <c:v>52</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="19">
                   <c:v>39</c:v>
                 </c:pt>
-                <c:pt idx="18">
+                <c:pt idx="20">
                   <c:v>26</c:v>
                 </c:pt>
-                <c:pt idx="19">
+                <c:pt idx="21">
                   <c:v>13</c:v>
                 </c:pt>
-                <c:pt idx="20">
+                <c:pt idx="22">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -767,10 +776,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet2!$A$2:$A$22</c:f>
+              <c:f>Sheet2!$A$2:$A$24</c:f>
               <c:numCache>
                 <c:formatCode>d\-mmm</c:formatCode>
-                <c:ptCount val="21"/>
+                <c:ptCount val="23"/>
                 <c:pt idx="0">
                   <c:v>42079</c:v>
                 </c:pt>
@@ -833,16 +842,22 @@
                 </c:pt>
                 <c:pt idx="20">
                   <c:v>42111</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>42114</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>42115</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet2!$C$2:$C$22</c:f>
+              <c:f>Sheet2!$C$2:$C$24</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="21"/>
+                <c:ptCount val="23"/>
                 <c:pt idx="0">
                   <c:v>248</c:v>
                 </c:pt>
@@ -892,19 +907,25 @@
                   <c:v>121</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>121</c:v>
+                  <c:v>111</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>121</c:v>
+                  <c:v>111</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>121</c:v>
+                  <c:v>111</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>121</c:v>
+                  <c:v>79</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>121</c:v>
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>79</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -921,11 +942,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="162187904"/>
-        <c:axId val="169165568"/>
+        <c:axId val="73708288"/>
+        <c:axId val="73710208"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="162187904"/>
+        <c:axId val="73708288"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -954,14 +975,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="169165568"/>
+        <c:crossAx val="73710208"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="169165568"/>
+        <c:axId val="73710208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -991,7 +1012,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="162187904"/>
+        <c:crossAx val="73708288"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1620,10 +1641,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C22"/>
+  <dimension ref="A1:C24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="C22" sqref="C22:C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1648,8 +1669,8 @@
         <v>42079</v>
       </c>
       <c r="B2">
-        <f t="shared" ref="B2:B13" si="0">B3+13</f>
-        <v>260</v>
+        <f t="shared" ref="B2:B22" si="0">B3+13</f>
+        <v>286</v>
       </c>
       <c r="C2">
         <v>248</v>
@@ -1661,7 +1682,7 @@
       </c>
       <c r="B3">
         <f t="shared" si="0"/>
-        <v>247</v>
+        <v>273</v>
       </c>
       <c r="C3">
         <f>C2-14.5</f>
@@ -1674,7 +1695,7 @@
       </c>
       <c r="B4">
         <f t="shared" si="0"/>
-        <v>234</v>
+        <v>260</v>
       </c>
       <c r="C4">
         <f>C3-14.5</f>
@@ -1687,7 +1708,7 @@
       </c>
       <c r="B5">
         <f t="shared" si="0"/>
-        <v>221</v>
+        <v>247</v>
       </c>
       <c r="C5">
         <f>C4-14.5</f>
@@ -1700,7 +1721,7 @@
       </c>
       <c r="B6">
         <f t="shared" si="0"/>
-        <v>208</v>
+        <v>234</v>
       </c>
       <c r="C6">
         <f>C5-14.5</f>
@@ -1713,7 +1734,7 @@
       </c>
       <c r="B7">
         <f t="shared" si="0"/>
-        <v>195</v>
+        <v>221</v>
       </c>
       <c r="C7">
         <f>C6-5.5</f>
@@ -1726,7 +1747,7 @@
       </c>
       <c r="B8">
         <f t="shared" si="0"/>
-        <v>182</v>
+        <v>208</v>
       </c>
       <c r="C8">
         <f>C7-12</f>
@@ -1739,7 +1760,7 @@
       </c>
       <c r="B9">
         <f t="shared" si="0"/>
-        <v>169</v>
+        <v>195</v>
       </c>
       <c r="C9">
         <f>C8-15</f>
@@ -1752,7 +1773,7 @@
       </c>
       <c r="B10">
         <f t="shared" si="0"/>
-        <v>156</v>
+        <v>182</v>
       </c>
       <c r="C10">
         <f>C9-9.5</f>
@@ -1765,7 +1786,7 @@
       </c>
       <c r="B11">
         <f t="shared" si="0"/>
-        <v>143</v>
+        <v>169</v>
       </c>
       <c r="C11">
         <f>C10-10</f>
@@ -1778,10 +1799,10 @@
       </c>
       <c r="B12">
         <f t="shared" si="0"/>
-        <v>130</v>
+        <v>156</v>
       </c>
       <c r="C12">
-        <f t="shared" ref="C12:C22" si="1">C11</f>
+        <f t="shared" ref="C12:C24" si="1">C11</f>
         <v>138</v>
       </c>
     </row>
@@ -1791,7 +1812,7 @@
       </c>
       <c r="B13">
         <f t="shared" si="0"/>
-        <v>117</v>
+        <v>143</v>
       </c>
       <c r="C13">
         <f t="shared" si="1"/>
@@ -1803,8 +1824,8 @@
         <v>42100</v>
       </c>
       <c r="B14">
-        <f t="shared" ref="B14:B21" si="2">B15+13</f>
-        <v>104</v>
+        <f t="shared" si="0"/>
+        <v>130</v>
       </c>
       <c r="C14">
         <f>C13-12</f>
@@ -1816,8 +1837,8 @@
         <v>42101</v>
       </c>
       <c r="B15">
-        <f t="shared" si="2"/>
-        <v>91</v>
+        <f t="shared" si="0"/>
+        <v>117</v>
       </c>
       <c r="C15">
         <f t="shared" si="1"/>
@@ -1829,8 +1850,8 @@
         <v>42102</v>
       </c>
       <c r="B16">
-        <f t="shared" si="2"/>
-        <v>78</v>
+        <f t="shared" si="0"/>
+        <v>104</v>
       </c>
       <c r="C16">
         <f t="shared" si="1"/>
@@ -1842,8 +1863,8 @@
         <v>42104</v>
       </c>
       <c r="B17">
-        <f t="shared" si="2"/>
-        <v>65</v>
+        <f t="shared" si="0"/>
+        <v>91</v>
       </c>
       <c r="C17">
         <f>C16-5</f>
@@ -1855,12 +1876,12 @@
         <v>42107</v>
       </c>
       <c r="B18">
-        <f t="shared" si="2"/>
-        <v>52</v>
+        <f t="shared" si="0"/>
+        <v>78</v>
       </c>
       <c r="C18">
-        <f t="shared" si="1"/>
-        <v>121</v>
+        <f>C17-10</f>
+        <v>111</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
@@ -1868,12 +1889,12 @@
         <v>42108</v>
       </c>
       <c r="B19">
-        <f t="shared" si="2"/>
-        <v>39</v>
+        <f t="shared" si="0"/>
+        <v>65</v>
       </c>
       <c r="C19">
         <f t="shared" si="1"/>
-        <v>121</v>
+        <v>111</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
@@ -1881,12 +1902,12 @@
         <v>42109</v>
       </c>
       <c r="B20">
-        <f t="shared" si="2"/>
-        <v>26</v>
+        <f t="shared" si="0"/>
+        <v>52</v>
       </c>
       <c r="C20">
         <f t="shared" si="1"/>
-        <v>121</v>
+        <v>111</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
@@ -1894,12 +1915,12 @@
         <v>42110</v>
       </c>
       <c r="B21">
-        <f t="shared" si="2"/>
-        <v>13</v>
+        <f t="shared" si="0"/>
+        <v>39</v>
       </c>
       <c r="C21">
-        <f t="shared" si="1"/>
-        <v>121</v>
+        <f>C20-32</f>
+        <v>79</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
@@ -1907,11 +1928,37 @@
         <v>42111</v>
       </c>
       <c r="B22">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>26</v>
       </c>
       <c r="C22">
         <f t="shared" si="1"/>
-        <v>121</v>
+        <v>79</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" s="1">
+        <v>42114</v>
+      </c>
+      <c r="B23">
+        <f>B24+13</f>
+        <v>13</v>
+      </c>
+      <c r="C23">
+        <f t="shared" si="1"/>
+        <v>79</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" s="1">
+        <v>42115</v>
+      </c>
+      <c r="B24">
+        <v>0</v>
+      </c>
+      <c r="C24">
+        <f t="shared" si="1"/>
+        <v>79</v>
       </c>
     </row>
   </sheetData>

--- a/SPSWENG_SystemScape_BurnDownChart_v1.xlsx
+++ b/SPSWENG_SystemScape_BurnDownChart_v1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="6705" yWindow="3975" windowWidth="3315" windowHeight="3990" activeTab="1"/>
+    <workbookView xWindow="6705" yWindow="3975" windowWidth="3315" windowHeight="3885" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -440,11 +440,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="144747904"/>
-        <c:axId val="73057792"/>
+        <c:axId val="61808000"/>
+        <c:axId val="61810560"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="144747904"/>
+        <c:axId val="61808000"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -472,14 +472,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="73057792"/>
+        <c:crossAx val="61810560"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="73057792"/>
+        <c:axId val="61810560"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -508,7 +508,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="144747904"/>
+        <c:crossAx val="61808000"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -922,10 +922,10 @@
                   <c:v>79</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>79</c:v>
+                  <c:v>32</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>79</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -942,11 +942,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="73708288"/>
-        <c:axId val="73710208"/>
+        <c:axId val="60596992"/>
+        <c:axId val="60598912"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="73708288"/>
+        <c:axId val="60596992"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -975,14 +975,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="73710208"/>
+        <c:crossAx val="60598912"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="73710208"/>
+        <c:axId val="60598912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1012,7 +1012,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="73708288"/>
+        <c:crossAx val="60596992"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1644,7 +1644,7 @@
   <dimension ref="A1:C24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22:C24"/>
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1945,8 +1945,8 @@
         <v>13</v>
       </c>
       <c r="C23">
-        <f t="shared" si="1"/>
-        <v>79</v>
+        <f>C22-47</f>
+        <v>32</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
@@ -1957,8 +1957,8 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <f t="shared" si="1"/>
-        <v>79</v>
+        <f>C23-16</f>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
